--- a/generated_output/temp/us-core-birthsex.xlsx
+++ b/generated_output/temp/us-core-birthsex.xlsx
@@ -160,7 +160,7 @@
     <t>Extension.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -183,7 +183,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -202,7 +202,7 @@
     <t>Extension.url</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -215,7 +215,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/core/StructureDefinition/us-core-birthsex"/&gt;</t>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-birthsex</t>
   </si>
   <si>
     <t>N/A</t>
@@ -224,7 +224,7 @@
     <t>Extension.valueCode</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -296,67 +296,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
